--- a/Define Matching Weeks.xlsx
+++ b/Define Matching Weeks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amfam-my.sharepoint.com/personal/sierra_steiner_connectbyamfam_com/Documents/Documents/FTL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A4C6B604-5B47-42CF-A813-F8A67A232D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2331139E-B265-498B-910A-8197B866D66C}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{31271D5B-B40D-45F2-898B-D61F0B1B82E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9475F6-4750-4DD6-A406-96FFDE7379B5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98C48DBD-1433-48C6-8761-997BB72F2AB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98C48DBD-1433-48C6-8761-997BB72F2AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>New Year's Day</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Veterans Day</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
   </si>
   <si>
     <t>Holiday</t>
@@ -125,1654 +122,25 @@
     <t>2023 Date</t>
   </si>
   <si>
-    <t>12/29/2013</t>
-  </si>
-  <si>
-    <t>10/13/2013</t>
-  </si>
-  <si>
-    <t>10/12/2014</t>
-  </si>
-  <si>
-    <t>10/20/2013</t>
-  </si>
-  <si>
-    <t>10/19/2014</t>
-  </si>
-  <si>
-    <t>10/27/2013</t>
-  </si>
-  <si>
-    <t>10/26/2014</t>
-  </si>
-  <si>
-    <t>11/10/2013</t>
-  </si>
-  <si>
-    <t>11/24/2013</t>
-  </si>
-  <si>
-    <t>11/23/2014</t>
-  </si>
-  <si>
-    <t>11/30/2014</t>
-  </si>
-  <si>
-    <t>12/15/2013</t>
-  </si>
-  <si>
-    <t>12/14/2014</t>
-  </si>
-  <si>
-    <t>12/22/2013</t>
-  </si>
-  <si>
-    <t>12/21/2014</t>
-  </si>
-  <si>
     <t>12/28/2014</t>
-  </si>
-  <si>
-    <t>10/11/2015</t>
-  </si>
-  <si>
-    <t>10/18/2015</t>
-  </si>
-  <si>
-    <t>10/25/2015</t>
-  </si>
-  <si>
-    <t>11/22/2015</t>
-  </si>
-  <si>
-    <t>11/29/2015</t>
-  </si>
-  <si>
-    <t>12/13/2015</t>
-  </si>
-  <si>
-    <t>12/20/2015</t>
   </si>
   <si>
     <t>12/27/2015</t>
   </si>
   <si>
-    <t>10/16/2016</t>
-  </si>
-  <si>
-    <t>10/30/2016</t>
-  </si>
-  <si>
-    <t>11/20/2016</t>
-  </si>
-  <si>
-    <t>11/27/2016</t>
-  </si>
-  <si>
-    <t>12/11/2016</t>
-  </si>
-  <si>
-    <t>12/18/2016</t>
-  </si>
-  <si>
-    <t>12/25/2016</t>
-  </si>
-  <si>
-    <t>10/15/2017</t>
-  </si>
-  <si>
-    <t>10/22/2017</t>
-  </si>
-  <si>
-    <t>10/29/2017</t>
-  </si>
-  <si>
-    <t>11/12/2017</t>
-  </si>
-  <si>
-    <t>11/19/2017</t>
-  </si>
-  <si>
-    <t>11/26/2017</t>
-  </si>
-  <si>
-    <t>12/10/2017</t>
-  </si>
-  <si>
-    <t>12/17/2017</t>
-  </si>
-  <si>
-    <t>12/24/2017</t>
-  </si>
-  <si>
-    <t>12/31/2017</t>
-  </si>
-  <si>
-    <t>10/14/2018</t>
-  </si>
-  <si>
-    <t>10/21/2018</t>
-  </si>
-  <si>
-    <t>10/28/2018</t>
-  </si>
-  <si>
-    <t>11/11/2018</t>
-  </si>
-  <si>
-    <t>11/18/2018</t>
-  </si>
-  <si>
-    <t>11/25/2018</t>
-  </si>
-  <si>
-    <t>12/16/2018</t>
-  </si>
-  <si>
-    <t>12/23/2018</t>
-  </si>
-  <si>
-    <t>12/30/2018</t>
-  </si>
-  <si>
-    <t>03/31/2013</t>
-  </si>
-  <si>
-    <t>04/14/2013</t>
-  </si>
-  <si>
-    <t>04/21/2013</t>
-  </si>
-  <si>
-    <t>05/05/2013</t>
-  </si>
-  <si>
-    <t>05/12/2013</t>
-  </si>
-  <si>
-    <t>05/19/2013</t>
-  </si>
-  <si>
-    <t>05/26/2013</t>
-  </si>
-  <si>
-    <t>06/02/2013</t>
-  </si>
-  <si>
-    <t>06/09/2013</t>
-  </si>
-  <si>
-    <t>06/16/2013</t>
-  </si>
-  <si>
-    <t>06/23/2013</t>
-  </si>
-  <si>
-    <t>06/30/2013</t>
-  </si>
-  <si>
-    <t>07/07/2013</t>
-  </si>
-  <si>
-    <t>07/14/2013</t>
-  </si>
-  <si>
-    <t>07/21/2013</t>
-  </si>
-  <si>
-    <t>07/28/2013</t>
-  </si>
-  <si>
-    <t>08/04/2013</t>
-  </si>
-  <si>
-    <t>08/11/2013</t>
-  </si>
-  <si>
-    <t>08/18/2013</t>
-  </si>
-  <si>
-    <t>08/25/2013</t>
-  </si>
-  <si>
-    <t>09/01/2013</t>
-  </si>
-  <si>
-    <t>09/08/2013</t>
-  </si>
-  <si>
-    <t>09/15/2013</t>
-  </si>
-  <si>
-    <t>09/22/2013</t>
-  </si>
-  <si>
-    <t>09/29/2013</t>
-  </si>
-  <si>
-    <t>12/01/2013</t>
-  </si>
-  <si>
-    <t>12/08/2013</t>
-  </si>
-  <si>
-    <t>01/05/2014</t>
-  </si>
-  <si>
-    <t>01/19/2014</t>
-  </si>
-  <si>
-    <t>01/26/2014</t>
-  </si>
-  <si>
-    <t>02/02/2014</t>
-  </si>
-  <si>
-    <t>02/09/2014</t>
-  </si>
-  <si>
-    <t>02/16/2014</t>
-  </si>
-  <si>
-    <t>02/23/2014</t>
-  </si>
-  <si>
-    <t>03/02/2014</t>
-  </si>
-  <si>
-    <t>03/16/2014</t>
-  </si>
-  <si>
-    <t>03/23/2014</t>
-  </si>
-  <si>
-    <t>03/30/2014</t>
-  </si>
-  <si>
-    <t>04/13/2014</t>
-  </si>
-  <si>
-    <t>04/20/2014</t>
-  </si>
-  <si>
-    <t>05/04/2014</t>
-  </si>
-  <si>
-    <t>05/11/2014</t>
-  </si>
-  <si>
-    <t>05/18/2014</t>
-  </si>
-  <si>
-    <t>05/25/2014</t>
-  </si>
-  <si>
-    <t>06/01/2014</t>
-  </si>
-  <si>
-    <t>06/08/2014</t>
-  </si>
-  <si>
-    <t>06/15/2014</t>
-  </si>
-  <si>
-    <t>06/22/2014</t>
-  </si>
-  <si>
-    <t>06/29/2014</t>
-  </si>
-  <si>
-    <t>07/06/2014</t>
-  </si>
-  <si>
-    <t>07/13/2014</t>
-  </si>
-  <si>
-    <t>07/20/2014</t>
-  </si>
-  <si>
-    <t>07/27/2014</t>
-  </si>
-  <si>
-    <t>08/03/2014</t>
-  </si>
-  <si>
-    <t>08/10/2014</t>
-  </si>
-  <si>
-    <t>08/17/2014</t>
-  </si>
-  <si>
-    <t>08/24/2014</t>
-  </si>
-  <si>
-    <t>08/31/2014</t>
-  </si>
-  <si>
-    <t>09/07/2014</t>
-  </si>
-  <si>
-    <t>09/14/2014</t>
-  </si>
-  <si>
-    <t>09/21/2014</t>
-  </si>
-  <si>
-    <t>09/28/2014</t>
-  </si>
-  <si>
-    <t>11/09/2014</t>
-  </si>
-  <si>
-    <t>12/07/2014</t>
-  </si>
-  <si>
-    <t>01/04/2015</t>
-  </si>
-  <si>
-    <t>01/18/2015</t>
-  </si>
-  <si>
-    <t>01/25/2015</t>
-  </si>
-  <si>
-    <t>02/01/2015</t>
-  </si>
-  <si>
-    <t>02/08/2015</t>
-  </si>
-  <si>
-    <t>02/15/2015</t>
-  </si>
-  <si>
-    <t>02/22/2015</t>
-  </si>
-  <si>
-    <t>03/01/2015</t>
-  </si>
-  <si>
-    <t>03/15/2015</t>
-  </si>
-  <si>
-    <t>03/22/2015</t>
-  </si>
-  <si>
-    <t>03/29/2015</t>
-  </si>
-  <si>
-    <t>04/05/2015</t>
-  </si>
-  <si>
-    <t>04/12/2015</t>
-  </si>
-  <si>
-    <t>04/19/2015</t>
-  </si>
-  <si>
-    <t>05/03/2015</t>
-  </si>
-  <si>
-    <t>05/10/2015</t>
-  </si>
-  <si>
-    <t>05/17/2015</t>
-  </si>
-  <si>
-    <t>05/24/2015</t>
-  </si>
-  <si>
-    <t>05/31/2015</t>
-  </si>
-  <si>
-    <t>06/07/2015</t>
-  </si>
-  <si>
-    <t>06/21/2015</t>
-  </si>
-  <si>
-    <t>06/28/2015</t>
-  </si>
-  <si>
-    <t>07/05/2015</t>
-  </si>
-  <si>
-    <t>07/12/2015</t>
-  </si>
-  <si>
-    <t>07/19/2015</t>
-  </si>
-  <si>
-    <t>07/26/2015</t>
-  </si>
-  <si>
-    <t>08/02/2015</t>
-  </si>
-  <si>
-    <t>08/09/2015</t>
-  </si>
-  <si>
-    <t>08/16/2015</t>
-  </si>
-  <si>
-    <t>08/23/2015</t>
-  </si>
-  <si>
-    <t>09/06/2015</t>
-  </si>
-  <si>
-    <t>09/13/2015</t>
-  </si>
-  <si>
-    <t>09/20/2015</t>
-  </si>
-  <si>
-    <t>09/27/2015</t>
-  </si>
-  <si>
-    <t>11/08/2015</t>
-  </si>
-  <si>
-    <t>12/06/2015</t>
-  </si>
-  <si>
-    <t>01/03/2016</t>
-  </si>
-  <si>
-    <t>01/17/2016</t>
-  </si>
-  <si>
-    <t>01/24/2016</t>
-  </si>
-  <si>
-    <t>01/31/2016</t>
-  </si>
-  <si>
-    <t>02/14/2016</t>
-  </si>
-  <si>
-    <t>02/21/2016</t>
-  </si>
-  <si>
-    <t>02/28/2016</t>
-  </si>
-  <si>
-    <t>03/13/2016</t>
-  </si>
-  <si>
-    <t>03/20/2016</t>
-  </si>
-  <si>
-    <t>03/27/2016</t>
-  </si>
-  <si>
-    <t>04/17/2016</t>
-  </si>
-  <si>
-    <t>04/24/2016</t>
-  </si>
-  <si>
-    <t>05/01/2016</t>
-  </si>
-  <si>
-    <t>05/08/2016</t>
-  </si>
-  <si>
-    <t>05/15/2016</t>
-  </si>
-  <si>
-    <t>05/29/2016</t>
-  </si>
-  <si>
-    <t>06/05/2016</t>
-  </si>
-  <si>
-    <t>06/19/2016</t>
-  </si>
-  <si>
-    <t>07/03/2016</t>
-  </si>
-  <si>
-    <t>07/10/2016</t>
-  </si>
-  <si>
-    <t>07/17/2016</t>
-  </si>
-  <si>
-    <t>07/24/2016</t>
-  </si>
-  <si>
-    <t>07/31/2016</t>
-  </si>
-  <si>
-    <t>08/07/2016</t>
-  </si>
-  <si>
-    <t>08/14/2016</t>
-  </si>
-  <si>
-    <t>08/21/2016</t>
-  </si>
-  <si>
-    <t>09/04/2016</t>
-  </si>
-  <si>
-    <t>09/11/2016</t>
-  </si>
-  <si>
-    <t>09/18/2016</t>
-  </si>
-  <si>
-    <t>09/25/2016</t>
-  </si>
-  <si>
-    <t>10/09/2016</t>
-  </si>
-  <si>
-    <t>11/06/2016</t>
-  </si>
-  <si>
-    <t>12/04/2016</t>
-  </si>
-  <si>
-    <t>01/01/2017</t>
-  </si>
-  <si>
-    <t>01/08/2017</t>
-  </si>
-  <si>
-    <t>01/15/2017</t>
-  </si>
-  <si>
-    <t>01/22/2017</t>
-  </si>
-  <si>
-    <t>01/29/2017</t>
-  </si>
-  <si>
-    <t>02/05/2017</t>
-  </si>
-  <si>
-    <t>02/12/2017</t>
-  </si>
-  <si>
-    <t>02/19/2017</t>
-  </si>
-  <si>
-    <t>02/26/2017</t>
-  </si>
-  <si>
-    <t>03/05/2017</t>
-  </si>
-  <si>
-    <t>03/12/2017</t>
-  </si>
-  <si>
-    <t>03/19/2017</t>
-  </si>
-  <si>
-    <t>03/26/2017</t>
-  </si>
-  <si>
-    <t>04/02/2017</t>
-  </si>
-  <si>
-    <t>04/16/2017</t>
-  </si>
-  <si>
-    <t>04/23/2017</t>
-  </si>
-  <si>
-    <t>04/30/2017</t>
-  </si>
-  <si>
-    <t>05/07/2017</t>
-  </si>
-  <si>
-    <t>05/14/2017</t>
-  </si>
-  <si>
-    <t>05/21/2017</t>
-  </si>
-  <si>
-    <t>05/28/2017</t>
-  </si>
-  <si>
-    <t>06/04/2017</t>
-  </si>
-  <si>
-    <t>06/11/2017</t>
-  </si>
-  <si>
-    <t>06/18/2017</t>
-  </si>
-  <si>
-    <t>06/25/2017</t>
-  </si>
-  <si>
-    <t>07/02/2017</t>
-  </si>
-  <si>
-    <t>07/09/2017</t>
-  </si>
-  <si>
-    <t>07/16/2017</t>
-  </si>
-  <si>
-    <t>07/23/2017</t>
-  </si>
-  <si>
-    <t>07/30/2017</t>
-  </si>
-  <si>
-    <t>08/06/2017</t>
-  </si>
-  <si>
-    <t>08/13/2017</t>
-  </si>
-  <si>
-    <t>08/20/2017</t>
-  </si>
-  <si>
-    <t>08/27/2017</t>
-  </si>
-  <si>
-    <t>09/03/2017</t>
-  </si>
-  <si>
-    <t>09/10/2017</t>
-  </si>
-  <si>
-    <t>09/17/2017</t>
-  </si>
-  <si>
-    <t>09/24/2017</t>
-  </si>
-  <si>
-    <t>10/01/2017</t>
-  </si>
-  <si>
-    <t>10/08/2017</t>
-  </si>
-  <si>
-    <t>11/05/2017</t>
-  </si>
-  <si>
-    <t>12/03/2017</t>
-  </si>
-  <si>
-    <t>01/07/2018</t>
-  </si>
-  <si>
-    <t>01/14/2018</t>
-  </si>
-  <si>
-    <t>01/21/2018</t>
-  </si>
-  <si>
-    <t>01/28/2018</t>
-  </si>
-  <si>
-    <t>02/04/2018</t>
-  </si>
-  <si>
-    <t>02/11/2018</t>
-  </si>
-  <si>
-    <t>02/18/2018</t>
-  </si>
-  <si>
-    <t>02/25/2018</t>
-  </si>
-  <si>
-    <t>03/04/2018</t>
-  </si>
-  <si>
-    <t>03/11/2018</t>
-  </si>
-  <si>
-    <t>03/18/2018</t>
-  </si>
-  <si>
-    <t>03/25/2018</t>
-  </si>
-  <si>
-    <t>04/01/2018</t>
-  </si>
-  <si>
-    <t>04/15/2018</t>
-  </si>
-  <si>
-    <t>04/22/2018</t>
-  </si>
-  <si>
-    <t>04/29/2018</t>
-  </si>
-  <si>
-    <t>05/06/2018</t>
-  </si>
-  <si>
-    <t>05/13/2018</t>
-  </si>
-  <si>
-    <t>05/20/2018</t>
-  </si>
-  <si>
-    <t>05/27/2018</t>
-  </si>
-  <si>
-    <t>06/03/2018</t>
-  </si>
-  <si>
-    <t>06/10/2018</t>
-  </si>
-  <si>
-    <t>06/17/2018</t>
-  </si>
-  <si>
-    <t>06/24/2018</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
-  </si>
-  <si>
-    <t>07/08/2018</t>
-  </si>
-  <si>
-    <t>07/15/2018</t>
-  </si>
-  <si>
-    <t>07/22/2018</t>
-  </si>
-  <si>
-    <t>07/29/2018</t>
-  </si>
-  <si>
-    <t>08/05/2018</t>
-  </si>
-  <si>
-    <t>08/12/2018</t>
-  </si>
-  <si>
-    <t>08/19/2018</t>
-  </si>
-  <si>
-    <t>08/26/2018</t>
-  </si>
-  <si>
-    <t>09/02/2018</t>
-  </si>
-  <si>
-    <t>09/09/2018</t>
-  </si>
-  <si>
-    <t>09/16/2018</t>
-  </si>
-  <si>
-    <t>09/23/2018</t>
-  </si>
-  <si>
-    <t>09/30/2018</t>
-  </si>
-  <si>
-    <t>10/07/2018</t>
-  </si>
-  <si>
-    <t>12/02/2018</t>
-  </si>
-  <si>
-    <t>12/09/2018</t>
-  </si>
-  <si>
-    <t>01/06/2019</t>
-  </si>
-  <si>
-    <t>01/20/2019</t>
-  </si>
-  <si>
-    <t>01/27/2019</t>
-  </si>
-  <si>
-    <t>02/03/2019</t>
-  </si>
-  <si>
-    <t>02/10/2019</t>
-  </si>
-  <si>
-    <t>02/17/2019</t>
-  </si>
-  <si>
-    <t>02/24/2019</t>
-  </si>
-  <si>
-    <t>03/03/2019</t>
-  </si>
-  <si>
-    <t>03/17/2019</t>
-  </si>
-  <si>
-    <t>03/24/2019</t>
-  </si>
-  <si>
-    <t>03/31/2019</t>
-  </si>
-  <si>
-    <t>04/14/2019</t>
-  </si>
-  <si>
-    <t>04/21/2019</t>
-  </si>
-  <si>
-    <t>05/05/2019</t>
-  </si>
-  <si>
-    <t>05/12/2019</t>
-  </si>
-  <si>
-    <t>05/19/2019</t>
-  </si>
-  <si>
-    <t>05/26/2019</t>
-  </si>
-  <si>
-    <t>06/02/2019</t>
-  </si>
-  <si>
-    <t>06/09/2019</t>
-  </si>
-  <si>
-    <t>06/16/2019</t>
-  </si>
-  <si>
-    <t>06/23/2019</t>
-  </si>
-  <si>
-    <t>06/30/2019</t>
-  </si>
-  <si>
-    <t>07/07/2019</t>
-  </si>
-  <si>
-    <t>07/14/2019</t>
-  </si>
-  <si>
-    <t>07/21/2019</t>
-  </si>
-  <si>
-    <t>07/28/2019</t>
-  </si>
-  <si>
-    <t>08/04/2019</t>
-  </si>
-  <si>
-    <t>08/11/2019</t>
-  </si>
-  <si>
-    <t>08/18/2019</t>
-  </si>
-  <si>
-    <t>08/25/2019</t>
-  </si>
-  <si>
-    <t>09/01/2019</t>
-  </si>
-  <si>
-    <t>09/08/2019</t>
-  </si>
-  <si>
-    <t>09/15/2019</t>
-  </si>
-  <si>
     <t>01/01/2012</t>
-  </si>
-  <si>
-    <t>01/08/2012</t>
-  </si>
-  <si>
-    <t>01/15/2012</t>
-  </si>
-  <si>
-    <t>01/22/2012</t>
-  </si>
-  <si>
-    <t>01/29/2012</t>
-  </si>
-  <si>
-    <t>02/05/2012</t>
-  </si>
-  <si>
-    <t>02/12/2012</t>
-  </si>
-  <si>
-    <t>02/19/2012</t>
-  </si>
-  <si>
-    <t>02/26/2012</t>
-  </si>
-  <si>
-    <t>03/04/2012</t>
-  </si>
-  <si>
-    <t>03/11/2012</t>
-  </si>
-  <si>
-    <t>03/18/2012</t>
-  </si>
-  <si>
-    <t>03/25/2012</t>
-  </si>
-  <si>
-    <t>04/01/2012</t>
-  </si>
-  <si>
-    <t>04/08/2012</t>
-  </si>
-  <si>
-    <t>04/15/2012</t>
-  </si>
-  <si>
-    <t>04/22/2012</t>
-  </si>
-  <si>
-    <t>04/29/2012</t>
-  </si>
-  <si>
-    <t>05/06/2012</t>
-  </si>
-  <si>
-    <t>05/13/2012</t>
-  </si>
-  <si>
-    <t>05/20/2012</t>
-  </si>
-  <si>
-    <t>05/27/2012</t>
-  </si>
-  <si>
-    <t>06/03/2012</t>
-  </si>
-  <si>
-    <t>06/10/2012</t>
-  </si>
-  <si>
-    <t>06/17/2012</t>
-  </si>
-  <si>
-    <t>06/24/2012</t>
-  </si>
-  <si>
-    <t>07/01/2012</t>
-  </si>
-  <si>
-    <t>07/08/2012</t>
-  </si>
-  <si>
-    <t>07/15/2012</t>
-  </si>
-  <si>
-    <t>07/22/2012</t>
-  </si>
-  <si>
-    <t>07/29/2012</t>
-  </si>
-  <si>
-    <t>08/05/2012</t>
-  </si>
-  <si>
-    <t>08/12/2012</t>
-  </si>
-  <si>
-    <t>08/19/2012</t>
-  </si>
-  <si>
-    <t>08/26/2012</t>
-  </si>
-  <si>
-    <t>09/02/2012</t>
-  </si>
-  <si>
-    <t>09/09/2012</t>
-  </si>
-  <si>
-    <t>09/16/2012</t>
-  </si>
-  <si>
-    <t>09/23/2012</t>
-  </si>
-  <si>
-    <t>09/30/2012</t>
-  </si>
-  <si>
-    <t>10/07/2012</t>
-  </si>
-  <si>
-    <t>10/14/2012</t>
-  </si>
-  <si>
-    <t>10/21/2012</t>
-  </si>
-  <si>
-    <t>10/28/2012</t>
-  </si>
-  <si>
-    <t>11/11/2012</t>
-  </si>
-  <si>
-    <t>11/18/2012</t>
-  </si>
-  <si>
-    <t>11/25/2012</t>
-  </si>
-  <si>
-    <t>12/02/2012</t>
-  </si>
-  <si>
-    <t>12/09/2012</t>
-  </si>
-  <si>
-    <t>12/16/2012</t>
-  </si>
-  <si>
-    <t>12/23/2012</t>
-  </si>
-  <si>
-    <t>12/30/2012</t>
-  </si>
-  <si>
-    <t>01/06/2013</t>
-  </si>
-  <si>
-    <t>01/20/2013</t>
-  </si>
-  <si>
-    <t>01/27/2013</t>
-  </si>
-  <si>
-    <t>02/03/2013</t>
-  </si>
-  <si>
-    <t>02/10/2013</t>
-  </si>
-  <si>
-    <t>02/17/2013</t>
-  </si>
-  <si>
-    <t>02/24/2013</t>
-  </si>
-  <si>
-    <t>03/03/2013</t>
-  </si>
-  <si>
-    <t>03/17/2013</t>
-  </si>
-  <si>
-    <t>03/24/2013</t>
-  </si>
-  <si>
-    <t>09/22/2019</t>
-  </si>
-  <si>
-    <t>09/29/2019</t>
-  </si>
-  <si>
-    <t>10/13/2019</t>
-  </si>
-  <si>
-    <t>10/20/2019</t>
-  </si>
-  <si>
-    <t>10/27/2019</t>
-  </si>
-  <si>
-    <t>11/10/2019</t>
-  </si>
-  <si>
-    <t>11/24/2019</t>
-  </si>
-  <si>
-    <t>12/01/2019</t>
-  </si>
-  <si>
-    <t>12/08/2019</t>
-  </si>
-  <si>
-    <t>12/15/2019</t>
-  </si>
-  <si>
-    <t>12/22/2019</t>
   </si>
   <si>
     <t>12/29/2019</t>
   </si>
   <si>
-    <t>01/05/2020</t>
-  </si>
-  <si>
-    <t>01/19/2020</t>
-  </si>
-  <si>
-    <t>01/26/2020</t>
-  </si>
-  <si>
-    <t>02/02/2020</t>
-  </si>
-  <si>
-    <t>02/09/2020</t>
-  </si>
-  <si>
-    <t>02/16/2020</t>
-  </si>
-  <si>
-    <t>02/23/2020</t>
-  </si>
-  <si>
-    <t>03/01/2020</t>
-  </si>
-  <si>
-    <t>03/15/2020</t>
-  </si>
-  <si>
-    <t>03/22/2020</t>
-  </si>
-  <si>
-    <t>03/29/2020</t>
-  </si>
-  <si>
-    <t>04/12/2020</t>
-  </si>
-  <si>
-    <t>04/19/2020</t>
-  </si>
-  <si>
-    <t>05/03/2020</t>
-  </si>
-  <si>
-    <t>05/10/2020</t>
-  </si>
-  <si>
-    <t>05/17/2020</t>
-  </si>
-  <si>
-    <t>05/24/2020</t>
-  </si>
-  <si>
-    <t>05/31/2020</t>
-  </si>
-  <si>
-    <t>06/07/2020</t>
-  </si>
-  <si>
-    <t>06/21/2020</t>
-  </si>
-  <si>
-    <t>06/28/2020</t>
-  </si>
-  <si>
-    <t>07/05/2020</t>
-  </si>
-  <si>
-    <t>07/12/2020</t>
-  </si>
-  <si>
-    <t>07/19/2020</t>
-  </si>
-  <si>
-    <t>07/26/2020</t>
-  </si>
-  <si>
-    <t>08/02/2020</t>
-  </si>
-  <si>
-    <t>08/09/2020</t>
-  </si>
-  <si>
-    <t>08/16/2020</t>
-  </si>
-  <si>
-    <t>08/23/2020</t>
-  </si>
-  <si>
-    <t>09/06/2020</t>
-  </si>
-  <si>
-    <t>09/13/2020</t>
-  </si>
-  <si>
-    <t>09/20/2020</t>
-  </si>
-  <si>
-    <t>09/27/2020</t>
-  </si>
-  <si>
-    <t>10/11/2020</t>
-  </si>
-  <si>
-    <t>10/18/2020</t>
-  </si>
-  <si>
-    <t>10/25/2020</t>
-  </si>
-  <si>
-    <t>11/08/2020</t>
-  </si>
-  <si>
-    <t>11/22/2020</t>
-  </si>
-  <si>
-    <t>11/29/2020</t>
-  </si>
-  <si>
-    <t>12/06/2020</t>
-  </si>
-  <si>
-    <t>12/13/2020</t>
-  </si>
-  <si>
-    <t>12/20/2020</t>
-  </si>
-  <si>
     <t>12/27/2020</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>01/17/2021</t>
-  </si>
-  <si>
-    <t>01/24/2021</t>
-  </si>
-  <si>
-    <t>01/31/2021</t>
-  </si>
-  <si>
-    <t>02/14/2021</t>
-  </si>
-  <si>
-    <t>02/28/2021</t>
-  </si>
-  <si>
-    <t>02/21/2021</t>
-  </si>
-  <si>
-    <t>03/14/2021</t>
-  </si>
-  <si>
-    <t>03/21/2021</t>
-  </si>
-  <si>
-    <t>03/28/2021</t>
-  </si>
-  <si>
-    <t>04/04/2021</t>
-  </si>
-  <si>
-    <t>04/11/2021</t>
-  </si>
-  <si>
-    <t>04/18/2021</t>
-  </si>
-  <si>
-    <t>05/02/2021</t>
-  </si>
-  <si>
-    <t>05/09/2021</t>
-  </si>
-  <si>
-    <t>05/16/2021</t>
-  </si>
-  <si>
-    <t>05/30/2021</t>
-  </si>
-  <si>
-    <t>06/06/2021</t>
-  </si>
-  <si>
-    <t>06/20/2021</t>
-  </si>
-  <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
-    <t>07/11/2021</t>
-  </si>
-  <si>
-    <t>07/18/2021</t>
-  </si>
-  <si>
-    <t>07/25/2021</t>
-  </si>
-  <si>
-    <t>08/01/2021</t>
-  </si>
-  <si>
-    <t>08/08/2021</t>
-  </si>
-  <si>
-    <t>08/15/2021</t>
-  </si>
-  <si>
-    <t>08/22/2021</t>
-  </si>
-  <si>
-    <t>09/05/2021</t>
-  </si>
-  <si>
-    <t>09/12/2021</t>
-  </si>
-  <si>
-    <t>09/19/2021</t>
-  </si>
-  <si>
-    <t>09/26/2021</t>
-  </si>
-  <si>
-    <t>10/10/2021</t>
-  </si>
-  <si>
-    <t>10/17/2021</t>
-  </si>
-  <si>
-    <t>10/31/2021</t>
-  </si>
-  <si>
-    <t>11/07/2021</t>
-  </si>
-  <si>
-    <t>11/21/2021</t>
-  </si>
-  <si>
-    <t>11/28/2021</t>
-  </si>
-  <si>
-    <t>12/05/2021</t>
-  </si>
-  <si>
-    <t>12/12/2021</t>
-  </si>
-  <si>
-    <t>12/19/2021</t>
   </si>
   <si>
     <t>12/26/2021</t>
   </si>
   <si>
-    <t>01/02/2022</t>
-  </si>
-  <si>
-    <t>01/16/2022</t>
-  </si>
-  <si>
-    <t>01/23/2022</t>
-  </si>
-  <si>
-    <t>01/30/2022</t>
-  </si>
-  <si>
-    <t>02/13/2022</t>
-  </si>
-  <si>
-    <t>02/20/2022</t>
-  </si>
-  <si>
-    <t>02/27/2022</t>
-  </si>
-  <si>
-    <t>03/13/2022</t>
-  </si>
-  <si>
-    <t>03/20/2022</t>
-  </si>
-  <si>
-    <t>03/27/2022</t>
-  </si>
-  <si>
-    <t>04/17/2022</t>
-  </si>
-  <si>
-    <t>04/24/2022</t>
-  </si>
-  <si>
-    <t>05/01/2022</t>
-  </si>
-  <si>
-    <t>05/08/2022</t>
-  </si>
-  <si>
-    <t>05/15/2022</t>
-  </si>
-  <si>
-    <t>05/29/2022</t>
-  </si>
-  <si>
-    <t>06/05/2022</t>
-  </si>
-  <si>
-    <t>06/19/2022</t>
-  </si>
-  <si>
-    <t>07/03/2022</t>
-  </si>
-  <si>
-    <t>07/10/2022</t>
-  </si>
-  <si>
-    <t>07/17/2022</t>
-  </si>
-  <si>
-    <t>07/24/2022</t>
-  </si>
-  <si>
-    <t>07/31/2022</t>
-  </si>
-  <si>
-    <t>08/07/2022</t>
-  </si>
-  <si>
-    <t>08/14/2022</t>
-  </si>
-  <si>
-    <t>08/21/2022</t>
-  </si>
-  <si>
-    <t>09/04/2022</t>
-  </si>
-  <si>
-    <t>09/11/2022</t>
-  </si>
-  <si>
-    <t>09/18/2022</t>
-  </si>
-  <si>
-    <t>09/25/2022</t>
-  </si>
-  <si>
-    <t>10/09/2022</t>
-  </si>
-  <si>
-    <t>10/16/2022</t>
-  </si>
-  <si>
-    <t>10/30/2022</t>
-  </si>
-  <si>
-    <t>11/06/2022</t>
-  </si>
-  <si>
-    <t>11/20/2022</t>
-  </si>
-  <si>
-    <t>11/27/2022</t>
-  </si>
-  <si>
-    <t>12/04/2022</t>
-  </si>
-  <si>
-    <t>12/11/2022</t>
-  </si>
-  <si>
-    <t>12/18/2022</t>
-  </si>
-  <si>
-    <t>12/25/2022</t>
-  </si>
-  <si>
     <t>01/01/2023</t>
-  </si>
-  <si>
-    <t>01/08/2023</t>
-  </si>
-  <si>
-    <t>01/15/2023</t>
-  </si>
-  <si>
-    <t>01/22/2023</t>
-  </si>
-  <si>
-    <t>01/29/2023</t>
-  </si>
-  <si>
-    <t>02/05/2023</t>
-  </si>
-  <si>
-    <t>02/12/2023</t>
-  </si>
-  <si>
-    <t>02/19/2023</t>
-  </si>
-  <si>
-    <t>02/26/2023</t>
-  </si>
-  <si>
-    <t>03/05/2023</t>
-  </si>
-  <si>
-    <t>03/12/2023</t>
-  </si>
-  <si>
-    <t>03/19/2023</t>
-  </si>
-  <si>
-    <t>03/26/2023</t>
-  </si>
-  <si>
-    <t>04/02/2023</t>
-  </si>
-  <si>
-    <t>04/09/2023</t>
-  </si>
-  <si>
-    <t>04/16/2023</t>
-  </si>
-  <si>
-    <t>04/23/2023</t>
-  </si>
-  <si>
-    <t>04/30/2023</t>
-  </si>
-  <si>
-    <t>05/07/2023</t>
-  </si>
-  <si>
-    <t>05/14/2023</t>
-  </si>
-  <si>
-    <t>05/21/2023</t>
-  </si>
-  <si>
-    <t>05/28/2023</t>
-  </si>
-  <si>
-    <t>06/04/2023</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
-    <t>06/18/2023</t>
-  </si>
-  <si>
-    <t>06/25/2023</t>
-  </si>
-  <si>
-    <t>07/02/2023</t>
-  </si>
-  <si>
-    <t>07/09/2023</t>
-  </si>
-  <si>
-    <t>07/16/2023</t>
-  </si>
-  <si>
-    <t>07/23/2023</t>
-  </si>
-  <si>
-    <t>07/30/2023</t>
-  </si>
-  <si>
-    <t>08/06/2023</t>
-  </si>
-  <si>
-    <t>08/13/2023</t>
-  </si>
-  <si>
-    <t>08/20/2023</t>
-  </si>
-  <si>
-    <t>08/27/2023</t>
-  </si>
-  <si>
-    <t>09/03/2023</t>
-  </si>
-  <si>
-    <t>09/10/2023</t>
-  </si>
-  <si>
-    <t>09/17/2023</t>
-  </si>
-  <si>
-    <t>09/24/2023</t>
-  </si>
-  <si>
-    <t>10/01/2023</t>
-  </si>
-  <si>
-    <t>10/08/2023</t>
-  </si>
-  <si>
-    <t>10/15/2023</t>
-  </si>
-  <si>
-    <t>10/22/2023</t>
-  </si>
-  <si>
-    <t>10/29/2023</t>
-  </si>
-  <si>
-    <t>11/05/2023</t>
-  </si>
-  <si>
-    <t>11/12/2023</t>
-  </si>
-  <si>
-    <t>11/19/2023</t>
-  </si>
-  <si>
-    <t>11/26/2023</t>
-  </si>
-  <si>
-    <t>12/03/2023</t>
-  </si>
-  <si>
-    <t>12/10/2023</t>
-  </si>
-  <si>
-    <t>12/17/2023</t>
-  </si>
-  <si>
-    <t>12/24/2023</t>
-  </si>
-  <si>
-    <t>12/31/2023</t>
   </si>
   <si>
     <t>Juneteenth National Independence Day</t>
@@ -1782,6 +150,9 @@
   </si>
   <si>
     <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>2024 Date</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +2144,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="204" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="761">
     <cellStyle name=" &amp;A_x0002_" xfId="1" xr:uid="{F4DBACAE-88E5-4B81-8353-56C8E0988D3A}"/>
@@ -4848,23 +3219,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CF231D-CF15-4555-BC3C-F7C971B8B16E}">
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>2012</v>
@@ -4902,45 +3272,51 @@
       <c r="M1">
         <v>2023</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1">
+        <v>2024</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="1"/>
+      <c r="AA1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4948,91 +3324,98 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>328</v>
+      <c r="N2">
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2">
+        <v>41273</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>41637</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>444</v>
+      <c r="T2" s="2">
+        <v>42729</v>
+      </c>
+      <c r="U2" s="2" t="str">
+        <f>TEXT("1/1/2018","mm/dd/yyyy")</f>
+        <v>01/01/2018</v>
+      </c>
+      <c r="V2" s="2">
+        <v>43465</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>485</v>
+        <v>31</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>525</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>45291</v>
+      </c>
+      <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5041,59 +3424,78 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA3" s="1"/>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:Z3" si="0">TEXT(O$2+(B2*7),"mm/dd/yyyy")</f>
+        <v>01/08/2012</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/06/2013</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/05/2014</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/04/2015</v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/03/2016</v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/01/2017</v>
+      </c>
+      <c r="U3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/08/2018</v>
+      </c>
+      <c r="V3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/07/2019</v>
+      </c>
+      <c r="W3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/05/2020</v>
+      </c>
+      <c r="X3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/03/2021</v>
+      </c>
+      <c r="Y3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/02/2022</v>
+      </c>
+      <c r="Z3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01/08/2023</v>
+      </c>
+      <c r="AA3" s="2" t="str">
+        <f>TEXT(AA$2+(N2*7),"mm/dd/yyyy")</f>
+        <v>01/07/2024</v>
+      </c>
+      <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5133,45 +3535,64 @@
       <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA4" s="1"/>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" ref="O4:O54" si="1">TEXT(O$2+(B3*7),"mm/dd/yyyy")</f>
+        <v>01/15/2012</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" ref="P4:P54" si="2">TEXT(P$2+(C3*7),"mm/dd/yyyy")</f>
+        <v>01/20/2013</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" ref="Q4:Q54" si="3">TEXT(Q$2+(D3*7),"mm/dd/yyyy")</f>
+        <v>01/19/2014</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" ref="R4:R54" si="4">TEXT(R$2+(E3*7),"mm/dd/yyyy")</f>
+        <v>01/18/2015</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f t="shared" ref="S4:S53" si="5">TEXT(S$2+(F3*7),"mm/dd/yyyy")</f>
+        <v>01/17/2016</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" ref="T4:T53" si="6">TEXT(T$2+(G3*7),"mm/dd/yyyy")</f>
+        <v>01/08/2017</v>
+      </c>
+      <c r="U4" s="2" t="str">
+        <f t="shared" ref="U4:U53" si="7">TEXT(U$2+(H3*7),"mm/dd/yyyy")</f>
+        <v>01/15/2018</v>
+      </c>
+      <c r="V4" s="2" t="str">
+        <f t="shared" ref="V4:V54" si="8">TEXT(V$2+(I3*7),"mm/dd/yyyy")</f>
+        <v>01/21/2019</v>
+      </c>
+      <c r="W4" s="2" t="str">
+        <f t="shared" ref="W4:W54" si="9">TEXT(W$2+(J3*7),"mm/dd/yyyy")</f>
+        <v>01/19/2020</v>
+      </c>
+      <c r="X4" s="2" t="str">
+        <f t="shared" ref="X4:X54" si="10">TEXT(X$2+(K3*7),"mm/dd/yyyy")</f>
+        <v>01/17/2021</v>
+      </c>
+      <c r="Y4" s="2" t="str">
+        <f t="shared" ref="Y4:Y54" si="11">TEXT(Y$2+(L3*7),"mm/dd/yyyy")</f>
+        <v>01/16/2022</v>
+      </c>
+      <c r="Z4" s="2" t="str">
+        <f t="shared" ref="Z4:Z54" si="12">TEXT(Z$2+(M3*7),"mm/dd/yyyy")</f>
+        <v>01/15/2023</v>
+      </c>
+      <c r="AA4" s="2" t="str">
+        <f t="shared" ref="AA4:AA54" si="13">TEXT(AA$2+(N3*7),"mm/dd/yyyy")</f>
+        <v>01/14/2024</v>
+      </c>
+      <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="B5">
         <v>4</v>
       </c>
@@ -5208,45 +3629,64 @@
       <c r="M5">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA5" s="1"/>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01/22/2012</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01/27/2013</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>01/26/2014</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>01/25/2015</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>01/24/2016</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01/15/2017</v>
+      </c>
+      <c r="U5" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>01/22/2018</v>
+      </c>
+      <c r="V5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>01/28/2019</v>
+      </c>
+      <c r="W5" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01/26/2020</v>
+      </c>
+      <c r="X5" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>01/24/2021</v>
+      </c>
+      <c r="Y5" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>01/23/2022</v>
+      </c>
+      <c r="Z5" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>01/22/2023</v>
+      </c>
+      <c r="AA5" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01/21/2024</v>
+      </c>
+      <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="B6">
         <v>5</v>
       </c>
@@ -5283,45 +3723,64 @@
       <c r="M6">
         <v>5</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA6" s="1"/>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01/29/2012</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>02/03/2013</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>02/02/2014</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>02/01/2015</v>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>01/31/2016</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01/22/2017</v>
+      </c>
+      <c r="U6" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>01/29/2018</v>
+      </c>
+      <c r="V6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>02/04/2019</v>
+      </c>
+      <c r="W6" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>02/02/2020</v>
+      </c>
+      <c r="X6" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>01/31/2021</v>
+      </c>
+      <c r="Y6" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>01/30/2022</v>
+      </c>
+      <c r="Z6" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>01/29/2023</v>
+      </c>
+      <c r="AA6" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01/28/2024</v>
+      </c>
+      <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="B7">
         <v>6</v>
       </c>
@@ -5358,45 +3817,64 @@
       <c r="M7">
         <v>6</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA7" s="1"/>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>02/05/2012</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>02/03/2013</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>02/02/2014</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>02/01/2015</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>01/31/2016</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01/29/2017</v>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>02/05/2018</v>
+      </c>
+      <c r="V7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>02/04/2019</v>
+      </c>
+      <c r="W7" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>02/02/2020</v>
+      </c>
+      <c r="X7" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>01/31/2021</v>
+      </c>
+      <c r="Y7" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>01/30/2022</v>
+      </c>
+      <c r="Z7" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>02/05/2023</v>
+      </c>
+      <c r="AA7" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>02/04/2024</v>
+      </c>
+      <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5436,47 +3914,66 @@
       <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA8" s="1"/>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>02/12/2012</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>02/10/2013</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>02/09/2014</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>02/08/2015</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>02/07/2016</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02/05/2017</v>
+      </c>
+      <c r="U8" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>02/12/2018</v>
+      </c>
+      <c r="V8" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>02/11/2019</v>
+      </c>
+      <c r="W8" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>02/09/2020</v>
+      </c>
+      <c r="X8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>02/07/2021</v>
+      </c>
+      <c r="Y8" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>02/06/2022</v>
+      </c>
+      <c r="Z8" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>02/12/2023</v>
+      </c>
+      <c r="AA8" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>02/11/2024</v>
+      </c>
+      <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5514,45 +4011,64 @@
       <c r="M9">
         <v>8</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA9" s="1"/>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>02/19/2012</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>02/17/2013</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>02/16/2014</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>02/15/2015</v>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>02/21/2016</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02/12/2017</v>
+      </c>
+      <c r="U9" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>02/19/2018</v>
+      </c>
+      <c r="V9" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>02/18/2019</v>
+      </c>
+      <c r="W9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>02/16/2020</v>
+      </c>
+      <c r="X9" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>02/21/2021</v>
+      </c>
+      <c r="Y9" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>02/20/2022</v>
+      </c>
+      <c r="Z9" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>02/19/2023</v>
+      </c>
+      <c r="AA9" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>02/18/2024</v>
+      </c>
+      <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="B10">
         <v>9</v>
       </c>
@@ -5584,50 +4100,69 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>9</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA10" s="1"/>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>02/26/2012</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>02/24/2013</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>02/23/2014</v>
+      </c>
+      <c r="R10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>02/22/2015</v>
+      </c>
+      <c r="S10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>02/21/2016</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02/19/2017</v>
+      </c>
+      <c r="U10" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>02/26/2018</v>
+      </c>
+      <c r="V10" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>02/25/2019</v>
+      </c>
+      <c r="W10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>02/23/2020</v>
+      </c>
+      <c r="X10" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>02/21/2021</v>
+      </c>
+      <c r="Y10" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>02/27/2022</v>
+      </c>
+      <c r="Z10" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>02/26/2023</v>
+      </c>
+      <c r="AA10" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>02/25/2024</v>
+      </c>
+      <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="B11">
         <v>10</v>
       </c>
@@ -5664,45 +4199,64 @@
       <c r="M11">
         <v>10</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA11" s="1"/>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>03/04/2012</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03/03/2013</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>03/02/2014</v>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>03/01/2015</v>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>02/28/2016</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02/26/2017</v>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>03/05/2018</v>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>03/04/2019</v>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>03/01/2020</v>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>02/28/2021</v>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>02/27/2022</v>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>03/05/2023</v>
+      </c>
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>03/03/2024</v>
+      </c>
+      <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5710,16 +4264,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -5728,134 +4282,172 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M12">
         <v>11</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA12" s="1"/>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>03/11/2012</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03/10/2013</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>03/09/2014</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>03/08/2015</v>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>03/06/2016</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>03/05/2017</v>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>03/12/2018</v>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>03/11/2019</v>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>03/08/2020</v>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>03/07/2021</v>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>03/06/2022</v>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>03/12/2023</v>
+      </c>
+      <c r="AA12" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>03/10/2024</v>
+      </c>
+      <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
       <c r="D13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="I13">
-        <v>13</v>
-      </c>
-      <c r="J13">
-        <v>13</v>
-      </c>
       <c r="K13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
         <v>12</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA13" s="1"/>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>03/18/2012</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03/17/2013</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>03/16/2014</v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>03/15/2015</v>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>03/13/2016</v>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>03/12/2017</v>
+      </c>
+      <c r="U13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>03/19/2018</v>
+      </c>
+      <c r="V13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>03/18/2019</v>
+      </c>
+      <c r="W13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>03/15/2020</v>
+      </c>
+      <c r="X13" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>03/14/2021</v>
+      </c>
+      <c r="Y13" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>03/13/2022</v>
+      </c>
+      <c r="Z13" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>03/19/2023</v>
+      </c>
+      <c r="AA13" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>03/17/2024</v>
+      </c>
+      <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="B14">
         <v>13</v>
       </c>
@@ -5892,120 +4484,158 @@
       <c r="M14">
         <v>13</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA14" s="1"/>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>03/18/2012</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03/24/2013</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>03/23/2014</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>03/22/2015</v>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>03/20/2016</v>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>03/12/2017</v>
+      </c>
+      <c r="U14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>03/19/2018</v>
+      </c>
+      <c r="V14" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>03/25/2019</v>
+      </c>
+      <c r="W14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>03/22/2020</v>
+      </c>
+      <c r="X14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>03/21/2021</v>
+      </c>
+      <c r="Y14" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>03/20/2022</v>
+      </c>
+      <c r="Z14" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>03/19/2023</v>
+      </c>
+      <c r="AA14" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>03/24/2024</v>
+      </c>
+      <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
         <v>14</v>
       </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA15" s="1"/>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>04/01/2012</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03/31/2013</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>03/30/2014</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>03/29/2015</v>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>03/27/2016</v>
+      </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>03/26/2017</v>
+      </c>
+      <c r="U15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>04/02/2018</v>
+      </c>
+      <c r="V15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>04/01/2019</v>
+      </c>
+      <c r="W15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>03/29/2020</v>
+      </c>
+      <c r="X15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>03/28/2021</v>
+      </c>
+      <c r="Y15" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>03/27/2022</v>
+      </c>
+      <c r="Z15" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>04/02/2023</v>
+      </c>
+      <c r="AA15" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>03/31/2024</v>
+      </c>
+      <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6013,77 +4643,96 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M16">
         <v>15</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA16" s="1"/>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>04/15/2012</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>04/07/2013</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>04/27/2014</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>04/12/2015</v>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>04/03/2016</v>
+      </c>
+      <c r="T16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>04/16/2017</v>
+      </c>
+      <c r="U16" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>04/09/2018</v>
+      </c>
+      <c r="V16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>04/29/2019</v>
+      </c>
+      <c r="W16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>04/19/2020</v>
+      </c>
+      <c r="X16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>04/11/2021</v>
+      </c>
+      <c r="Y16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>04/24/2022</v>
+      </c>
+      <c r="Z16" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>04/16/2023</v>
+      </c>
+      <c r="AA16" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>04/07/2024</v>
+      </c>
+      <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -6123,45 +4772,64 @@
       <c r="M17">
         <v>16</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA17" s="1"/>
+      <c r="N17">
+        <v>16</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>04/15/2012</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>04/14/2013</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>04/13/2014</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>04/12/2015</v>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>04/10/2016</v>
+      </c>
+      <c r="T17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>04/09/2017</v>
+      </c>
+      <c r="U17" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>04/16/2018</v>
+      </c>
+      <c r="V17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>04/15/2019</v>
+      </c>
+      <c r="W17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>04/12/2020</v>
+      </c>
+      <c r="X17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>04/11/2021</v>
+      </c>
+      <c r="Y17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>04/10/2022</v>
+      </c>
+      <c r="Z17" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>04/16/2023</v>
+      </c>
+      <c r="AA17" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>04/14/2024</v>
+      </c>
+      <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="B18">
         <v>17</v>
       </c>
@@ -6175,7 +4843,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -6193,50 +4861,69 @@
         <v>17</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18">
         <v>17</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA18" s="1"/>
+      <c r="N18">
+        <v>17</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>04/22/2012</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>04/21/2013</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>04/20/2014</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>04/19/2015</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>04/24/2016</v>
+      </c>
+      <c r="T18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>04/16/2017</v>
+      </c>
+      <c r="U18" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>04/23/2018</v>
+      </c>
+      <c r="V18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>04/22/2019</v>
+      </c>
+      <c r="W18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>04/19/2020</v>
+      </c>
+      <c r="X18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>04/18/2021</v>
+      </c>
+      <c r="Y18" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>04/24/2022</v>
+      </c>
+      <c r="Z18" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>04/23/2023</v>
+      </c>
+      <c r="AA18" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>04/21/2024</v>
+      </c>
+      <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6244,16 +4931,16 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -6262,61 +4949,80 @@
         <v>18</v>
       </c>
       <c r="I19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19">
         <v>18</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA19" s="1"/>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>04/29/2012</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>04/28/2013</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>04/27/2014</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>04/26/2015</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>04/24/2016</v>
+      </c>
+      <c r="T19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>04/23/2017</v>
+      </c>
+      <c r="U19" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>04/30/2018</v>
+      </c>
+      <c r="V19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>04/29/2019</v>
+      </c>
+      <c r="W19" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>04/26/2020</v>
+      </c>
+      <c r="X19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>04/25/2021</v>
+      </c>
+      <c r="Y19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>04/24/2022</v>
+      </c>
+      <c r="Z19" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>04/30/2023</v>
+      </c>
+      <c r="AA19" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>04/28/2024</v>
+      </c>
+      <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="B20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -6331,10 +5037,10 @@
         <v>19</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>19</v>
@@ -6349,47 +5055,66 @@
         <v>19</v>
       </c>
       <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
         <v>19</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA20" s="1"/>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>05/06/2012</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>05/05/2013</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>05/04/2014</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>05/03/2015</v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>05/01/2016</v>
+      </c>
+      <c r="T20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>04/30/2017</v>
+      </c>
+      <c r="U20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>05/07/2018</v>
+      </c>
+      <c r="V20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>05/06/2019</v>
+      </c>
+      <c r="W20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>05/03/2020</v>
+      </c>
+      <c r="X20" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>05/02/2021</v>
+      </c>
+      <c r="Y20" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>05/01/2022</v>
+      </c>
+      <c r="Z20" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>05/07/2023</v>
+      </c>
+      <c r="AA20" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>05/05/2024</v>
+      </c>
+      <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6429,45 +5154,64 @@
       <c r="M21">
         <v>20</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA21" s="1"/>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>05/06/2012</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>05/12/2013</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>05/11/2014</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>05/10/2015</v>
+      </c>
+      <c r="S21" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>05/08/2016</v>
+      </c>
+      <c r="T21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>04/30/2017</v>
+      </c>
+      <c r="U21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>05/07/2018</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>05/13/2019</v>
+      </c>
+      <c r="W21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>05/10/2020</v>
+      </c>
+      <c r="X21" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>05/09/2021</v>
+      </c>
+      <c r="Y21" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>05/08/2022</v>
+      </c>
+      <c r="Z21" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>05/07/2023</v>
+      </c>
+      <c r="AA21" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>05/12/2024</v>
+      </c>
+      <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="B22">
         <v>21</v>
       </c>
@@ -6481,7 +5225,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -6496,53 +5240,72 @@
         <v>21</v>
       </c>
       <c r="K22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22">
         <v>21</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA22" s="1"/>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>05/20/2012</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>05/19/2013</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>05/18/2014</v>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>05/17/2015</v>
+      </c>
+      <c r="S22" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>05/15/2016</v>
+      </c>
+      <c r="T22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>05/14/2017</v>
+      </c>
+      <c r="U22" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>05/21/2018</v>
+      </c>
+      <c r="V22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>05/20/2019</v>
+      </c>
+      <c r="W22" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>05/17/2020</v>
+      </c>
+      <c r="X22" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>05/16/2021</v>
+      </c>
+      <c r="Y22" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>05/15/2022</v>
+      </c>
+      <c r="Z22" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>05/21/2023</v>
+      </c>
+      <c r="AA22" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>05/19/2024</v>
+      </c>
+      <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -6582,45 +5345,64 @@
       <c r="M23">
         <v>22</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA23" s="1"/>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>05/27/2012</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>05/26/2013</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>05/25/2014</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>05/24/2015</v>
+      </c>
+      <c r="S23" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>05/29/2016</v>
+      </c>
+      <c r="T23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>05/21/2017</v>
+      </c>
+      <c r="U23" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>05/28/2018</v>
+      </c>
+      <c r="V23" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>05/27/2019</v>
+      </c>
+      <c r="W23" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>05/24/2020</v>
+      </c>
+      <c r="X23" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>05/30/2021</v>
+      </c>
+      <c r="Y23" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>05/29/2022</v>
+      </c>
+      <c r="Z23" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>05/28/2023</v>
+      </c>
+      <c r="AA23" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>05/26/2024</v>
+      </c>
+      <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28">
       <c r="B24">
         <v>23</v>
       </c>
@@ -6657,45 +5439,64 @@
       <c r="M24">
         <v>23</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA24" s="1"/>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>06/03/2012</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>06/02/2013</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>06/01/2014</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>05/31/2015</v>
+      </c>
+      <c r="S24" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>06/05/2016</v>
+      </c>
+      <c r="T24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>05/28/2017</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>06/04/2018</v>
+      </c>
+      <c r="V24" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>06/03/2019</v>
+      </c>
+      <c r="W24" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>05/31/2020</v>
+      </c>
+      <c r="X24" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>06/06/2021</v>
+      </c>
+      <c r="Y24" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>06/05/2022</v>
+      </c>
+      <c r="Z24" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>06/04/2023</v>
+      </c>
+      <c r="AA24" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>06/02/2024</v>
+      </c>
+      <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="B25">
         <v>24</v>
       </c>
@@ -6732,47 +5533,66 @@
       <c r="M25">
         <v>24</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA25" s="1"/>
+      <c r="N25">
+        <v>24</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>06/10/2012</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>06/09/2013</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>06/08/2014</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>06/07/2015</v>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>06/12/2016</v>
+      </c>
+      <c r="T25" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>06/04/2017</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>06/11/2018</v>
+      </c>
+      <c r="V25" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>06/10/2019</v>
+      </c>
+      <c r="W25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>06/07/2020</v>
+      </c>
+      <c r="X25" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>06/13/2021</v>
+      </c>
+      <c r="Y25" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>06/12/2022</v>
+      </c>
+      <c r="Z25" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>06/11/2023</v>
+      </c>
+      <c r="AA25" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>06/09/2024</v>
+      </c>
+      <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>579</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -6810,45 +5630,64 @@
       <c r="M26">
         <v>25</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="AA26" s="1"/>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>06/17/2012</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>06/16/2013</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>06/15/2014</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>06/14/2015</v>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>06/12/2016</v>
+      </c>
+      <c r="T26" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>06/11/2017</v>
+      </c>
+      <c r="U26" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>06/18/2018</v>
+      </c>
+      <c r="V26" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>06/17/2019</v>
+      </c>
+      <c r="W26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>06/14/2020</v>
+      </c>
+      <c r="X26" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>06/13/2021</v>
+      </c>
+      <c r="Y26" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>06/12/2022</v>
+      </c>
+      <c r="Z26" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>06/18/2023</v>
+      </c>
+      <c r="AA26" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>06/16/2024</v>
+      </c>
+      <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="B27">
         <v>26</v>
       </c>
@@ -6862,7 +5701,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -6877,53 +5716,72 @@
         <v>26</v>
       </c>
       <c r="K27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27">
         <v>26</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA27" s="1"/>
+      <c r="N27">
+        <v>26</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>06/24/2012</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>06/23/2013</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>06/22/2014</v>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>06/28/2015</v>
+      </c>
+      <c r="S27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>06/26/2016</v>
+      </c>
+      <c r="T27" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>06/18/2017</v>
+      </c>
+      <c r="U27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>06/25/2018</v>
+      </c>
+      <c r="V27" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>06/24/2019</v>
+      </c>
+      <c r="W27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>06/28/2020</v>
+      </c>
+      <c r="X27" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>06/27/2021</v>
+      </c>
+      <c r="Y27" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>06/26/2022</v>
+      </c>
+      <c r="Z27" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>06/25/2023</v>
+      </c>
+      <c r="AA27" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>06/23/2024</v>
+      </c>
+      <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6963,45 +5821,64 @@
       <c r="M28">
         <v>27</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA28" s="1"/>
+      <c r="N28">
+        <v>27</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>07/01/2012</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>06/30/2013</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>06/29/2014</v>
+      </c>
+      <c r="R28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>06/28/2015</v>
+      </c>
+      <c r="S28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>07/03/2016</v>
+      </c>
+      <c r="T28" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>06/25/2017</v>
+      </c>
+      <c r="U28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>07/02/2018</v>
+      </c>
+      <c r="V28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>07/01/2019</v>
+      </c>
+      <c r="W28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>06/28/2020</v>
+      </c>
+      <c r="X28" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>07/04/2021</v>
+      </c>
+      <c r="Y28" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>07/03/2022</v>
+      </c>
+      <c r="Z28" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>07/02/2023</v>
+      </c>
+      <c r="AA28" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>06/30/2024</v>
+      </c>
+      <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="B29">
         <v>28</v>
       </c>
@@ -7038,45 +5915,64 @@
       <c r="M29">
         <v>28</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="AA29" s="1"/>
+      <c r="N29">
+        <v>28</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>07/08/2012</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>07/07/2013</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>07/06/2014</v>
+      </c>
+      <c r="R29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>07/05/2015</v>
+      </c>
+      <c r="S29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>07/10/2016</v>
+      </c>
+      <c r="T29" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07/02/2017</v>
+      </c>
+      <c r="U29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>07/09/2018</v>
+      </c>
+      <c r="V29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>07/08/2019</v>
+      </c>
+      <c r="W29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>07/05/2020</v>
+      </c>
+      <c r="X29" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>07/11/2021</v>
+      </c>
+      <c r="Y29" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>07/10/2022</v>
+      </c>
+      <c r="Z29" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>07/09/2023</v>
+      </c>
+      <c r="AA29" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:28">
       <c r="B30">
         <v>29</v>
       </c>
@@ -7113,45 +6009,64 @@
       <c r="M30">
         <v>29</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA30" s="1"/>
+      <c r="N30">
+        <v>29</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>07/15/2012</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>07/14/2013</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>07/13/2014</v>
+      </c>
+      <c r="R30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>07/12/2015</v>
+      </c>
+      <c r="S30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>07/17/2016</v>
+      </c>
+      <c r="T30" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07/09/2017</v>
+      </c>
+      <c r="U30" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>07/16/2018</v>
+      </c>
+      <c r="V30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>07/15/2019</v>
+      </c>
+      <c r="W30" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>07/12/2020</v>
+      </c>
+      <c r="X30" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>07/18/2021</v>
+      </c>
+      <c r="Y30" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>07/17/2022</v>
+      </c>
+      <c r="Z30" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>07/16/2023</v>
+      </c>
+      <c r="AA30" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>07/14/2024</v>
+      </c>
+      <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:28">
       <c r="B31">
         <v>30</v>
       </c>
@@ -7188,45 +6103,64 @@
       <c r="M31">
         <v>30</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA31" s="1"/>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>07/22/2012</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>07/21/2013</v>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>07/20/2014</v>
+      </c>
+      <c r="R31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>07/19/2015</v>
+      </c>
+      <c r="S31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>07/17/2016</v>
+      </c>
+      <c r="T31" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07/16/2017</v>
+      </c>
+      <c r="U31" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>07/23/2018</v>
+      </c>
+      <c r="V31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>07/22/2019</v>
+      </c>
+      <c r="W31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>07/19/2020</v>
+      </c>
+      <c r="X31" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>07/18/2021</v>
+      </c>
+      <c r="Y31" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>07/17/2022</v>
+      </c>
+      <c r="Z31" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>07/23/2023</v>
+      </c>
+      <c r="AA31" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>07/21/2024</v>
+      </c>
+      <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:28">
       <c r="B32">
         <v>31</v>
       </c>
@@ -7263,45 +6197,64 @@
       <c r="M32">
         <v>31</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA32" s="1"/>
+      <c r="N32">
+        <v>31</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>07/29/2012</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>07/28/2013</v>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>07/27/2014</v>
+      </c>
+      <c r="R32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>07/26/2015</v>
+      </c>
+      <c r="S32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>07/24/2016</v>
+      </c>
+      <c r="T32" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07/23/2017</v>
+      </c>
+      <c r="U32" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>07/30/2018</v>
+      </c>
+      <c r="V32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>07/29/2019</v>
+      </c>
+      <c r="W32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>07/26/2020</v>
+      </c>
+      <c r="X32" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>07/25/2021</v>
+      </c>
+      <c r="Y32" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>07/24/2022</v>
+      </c>
+      <c r="Z32" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>07/30/2023</v>
+      </c>
+      <c r="AA32" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>07/28/2024</v>
+      </c>
+      <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:28">
       <c r="B33">
         <v>32</v>
       </c>
@@ -7338,45 +6291,64 @@
       <c r="M33">
         <v>32</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA33" s="1"/>
+      <c r="N33">
+        <v>32</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>08/05/2012</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>08/04/2013</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>08/03/2014</v>
+      </c>
+      <c r="R33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>08/02/2015</v>
+      </c>
+      <c r="S33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>07/31/2016</v>
+      </c>
+      <c r="T33" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07/30/2017</v>
+      </c>
+      <c r="U33" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>08/06/2018</v>
+      </c>
+      <c r="V33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>08/05/2019</v>
+      </c>
+      <c r="W33" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>08/02/2020</v>
+      </c>
+      <c r="X33" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>08/01/2021</v>
+      </c>
+      <c r="Y33" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>07/31/2022</v>
+      </c>
+      <c r="Z33" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>08/06/2023</v>
+      </c>
+      <c r="AA33" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08/04/2024</v>
+      </c>
+      <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:28">
       <c r="B34">
         <v>33</v>
       </c>
@@ -7413,45 +6385,64 @@
       <c r="M34">
         <v>33</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA34" s="1"/>
+      <c r="N34">
+        <v>33</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>08/12/2012</v>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>08/11/2013</v>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>08/10/2014</v>
+      </c>
+      <c r="R34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>08/09/2015</v>
+      </c>
+      <c r="S34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>08/07/2016</v>
+      </c>
+      <c r="T34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>08/06/2017</v>
+      </c>
+      <c r="U34" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>08/13/2018</v>
+      </c>
+      <c r="V34" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>08/12/2019</v>
+      </c>
+      <c r="W34" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>08/09/2020</v>
+      </c>
+      <c r="X34" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>08/08/2021</v>
+      </c>
+      <c r="Y34" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>08/07/2022</v>
+      </c>
+      <c r="Z34" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>08/13/2023</v>
+      </c>
+      <c r="AA34" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08/11/2024</v>
+      </c>
+      <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:28">
       <c r="B35">
         <v>34</v>
       </c>
@@ -7488,45 +6479,64 @@
       <c r="M35">
         <v>34</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA35" s="1"/>
+      <c r="N35">
+        <v>34</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>08/19/2012</v>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>08/18/2013</v>
+      </c>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>08/17/2014</v>
+      </c>
+      <c r="R35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>08/16/2015</v>
+      </c>
+      <c r="S35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>08/14/2016</v>
+      </c>
+      <c r="T35" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>08/13/2017</v>
+      </c>
+      <c r="U35" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>08/20/2018</v>
+      </c>
+      <c r="V35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>08/19/2019</v>
+      </c>
+      <c r="W35" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>08/16/2020</v>
+      </c>
+      <c r="X35" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>08/15/2021</v>
+      </c>
+      <c r="Y35" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>08/14/2022</v>
+      </c>
+      <c r="Z35" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>08/20/2023</v>
+      </c>
+      <c r="AA35" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08/18/2024</v>
+      </c>
+      <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:28">
       <c r="B36">
         <v>35</v>
       </c>
@@ -7537,10 +6547,10 @@
         <v>35</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>35</v>
@@ -7552,56 +6562,75 @@
         <v>35</v>
       </c>
       <c r="J36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M36">
         <v>35</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA36" s="1"/>
+      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>08/26/2012</v>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>08/25/2013</v>
+      </c>
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>08/24/2014</v>
+      </c>
+      <c r="R36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>08/23/2015</v>
+      </c>
+      <c r="S36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>08/21/2016</v>
+      </c>
+      <c r="T36" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>08/20/2017</v>
+      </c>
+      <c r="U36" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>08/27/2018</v>
+      </c>
+      <c r="V36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>08/26/2019</v>
+      </c>
+      <c r="W36" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>08/23/2020</v>
+      </c>
+      <c r="X36" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>08/22/2021</v>
+      </c>
+      <c r="Y36" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>08/21/2022</v>
+      </c>
+      <c r="Z36" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>08/27/2023</v>
+      </c>
+      <c r="AA36" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08/25/2024</v>
+      </c>
+      <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -7641,45 +6670,64 @@
       <c r="M37">
         <v>36</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA37" s="1"/>
+      <c r="N37">
+        <v>36</v>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>09/02/2012</v>
+      </c>
+      <c r="P37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>09/01/2013</v>
+      </c>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>08/31/2014</v>
+      </c>
+      <c r="R37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>09/06/2015</v>
+      </c>
+      <c r="S37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>09/04/2016</v>
+      </c>
+      <c r="T37" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>08/27/2017</v>
+      </c>
+      <c r="U37" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>09/03/2018</v>
+      </c>
+      <c r="V37" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>09/02/2019</v>
+      </c>
+      <c r="W37" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>09/06/2020</v>
+      </c>
+      <c r="X37" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>09/05/2021</v>
+      </c>
+      <c r="Y37" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>09/04/2022</v>
+      </c>
+      <c r="Z37" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>09/03/2023</v>
+      </c>
+      <c r="AA37" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>09/01/2024</v>
+      </c>
+      <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:28">
       <c r="B38">
         <v>37</v>
       </c>
@@ -7716,45 +6764,64 @@
       <c r="M38">
         <v>37</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="AA38" s="1"/>
+      <c r="N38">
+        <v>37</v>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>09/09/2012</v>
+      </c>
+      <c r="P38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>09/08/2013</v>
+      </c>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>09/07/2014</v>
+      </c>
+      <c r="R38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>09/13/2015</v>
+      </c>
+      <c r="S38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>09/11/2016</v>
+      </c>
+      <c r="T38" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>09/03/2017</v>
+      </c>
+      <c r="U38" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>09/10/2018</v>
+      </c>
+      <c r="V38" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>09/09/2019</v>
+      </c>
+      <c r="W38" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>09/13/2020</v>
+      </c>
+      <c r="X38" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>09/12/2021</v>
+      </c>
+      <c r="Y38" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>09/11/2022</v>
+      </c>
+      <c r="Z38" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>09/10/2023</v>
+      </c>
+      <c r="AA38" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>09/08/2024</v>
+      </c>
+      <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:28">
       <c r="B39">
         <v>38</v>
       </c>
@@ -7791,45 +6858,64 @@
       <c r="M39">
         <v>38</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AA39" s="1"/>
+      <c r="N39">
+        <v>38</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>09/16/2012</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>09/15/2013</v>
+      </c>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>09/14/2014</v>
+      </c>
+      <c r="R39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>09/20/2015</v>
+      </c>
+      <c r="S39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>09/18/2016</v>
+      </c>
+      <c r="T39" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>09/10/2017</v>
+      </c>
+      <c r="U39" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>09/17/2018</v>
+      </c>
+      <c r="V39" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>09/16/2019</v>
+      </c>
+      <c r="W39" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>09/20/2020</v>
+      </c>
+      <c r="X39" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>09/19/2021</v>
+      </c>
+      <c r="Y39" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>09/18/2022</v>
+      </c>
+      <c r="Z39" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>09/17/2023</v>
+      </c>
+      <c r="AA39" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>09/15/2024</v>
+      </c>
+      <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:28">
       <c r="B40">
         <v>39</v>
       </c>
@@ -7866,45 +6952,64 @@
       <c r="M40">
         <v>39</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA40" s="1"/>
+      <c r="N40">
+        <v>39</v>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>09/23/2012</v>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>09/22/2013</v>
+      </c>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>09/21/2014</v>
+      </c>
+      <c r="R40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>09/20/2015</v>
+      </c>
+      <c r="S40" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>09/18/2016</v>
+      </c>
+      <c r="T40" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>09/17/2017</v>
+      </c>
+      <c r="U40" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>09/24/2018</v>
+      </c>
+      <c r="V40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>09/23/2019</v>
+      </c>
+      <c r="W40" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>09/20/2020</v>
+      </c>
+      <c r="X40" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>09/19/2021</v>
+      </c>
+      <c r="Y40" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>09/18/2022</v>
+      </c>
+      <c r="Z40" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>09/24/2023</v>
+      </c>
+      <c r="AA40" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>09/22/2024</v>
+      </c>
+      <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:28">
       <c r="B41">
         <v>40</v>
       </c>
@@ -7941,62 +7046,81 @@
       <c r="M41">
         <v>40</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA41" s="1"/>
+      <c r="N41">
+        <v>40</v>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>09/30/2012</v>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>09/29/2013</v>
+      </c>
+      <c r="Q41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>09/28/2014</v>
+      </c>
+      <c r="R41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>09/27/2015</v>
+      </c>
+      <c r="S41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>09/25/2016</v>
+      </c>
+      <c r="T41" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>09/24/2017</v>
+      </c>
+      <c r="U41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>10/01/2018</v>
+      </c>
+      <c r="V41" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>09/30/2019</v>
+      </c>
+      <c r="W41" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>09/27/2020</v>
+      </c>
+      <c r="X41" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>09/26/2021</v>
+      </c>
+      <c r="Y41" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>09/25/2022</v>
+      </c>
+      <c r="Z41" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>10/01/2023</v>
+      </c>
+      <c r="AA41" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>09/29/2024</v>
+      </c>
+      <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>41</v>
@@ -8005,61 +7129,80 @@
         <v>41</v>
       </c>
       <c r="I42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42">
         <v>41</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AA42" s="1"/>
+      <c r="N42">
+        <v>41</v>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>10/07/2012</v>
+      </c>
+      <c r="P42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>10/06/2013</v>
+      </c>
+      <c r="Q42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>10/05/2014</v>
+      </c>
+      <c r="R42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/04/2015</v>
+      </c>
+      <c r="S42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>10/02/2016</v>
+      </c>
+      <c r="T42" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>10/01/2017</v>
+      </c>
+      <c r="U42" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>10/08/2018</v>
+      </c>
+      <c r="V42" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>10/07/2019</v>
+      </c>
+      <c r="W42" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>10/04/2020</v>
+      </c>
+      <c r="X42" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>10/03/2021</v>
+      </c>
+      <c r="Y42" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>10/02/2022</v>
+      </c>
+      <c r="Z42" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>10/08/2023</v>
+      </c>
+      <c r="AA42" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:28">
       <c r="B43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -8074,10 +7217,10 @@
         <v>42</v>
       </c>
       <c r="G43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43">
         <v>42</v>
@@ -8092,47 +7235,66 @@
         <v>42</v>
       </c>
       <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
         <v>42</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA43" s="1"/>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2012</v>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>10/13/2013</v>
+      </c>
+      <c r="Q43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>10/12/2014</v>
+      </c>
+      <c r="R43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/11/2015</v>
+      </c>
+      <c r="S43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>10/09/2016</v>
+      </c>
+      <c r="T43" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>10/08/2017</v>
+      </c>
+      <c r="U43" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>10/15/2018</v>
+      </c>
+      <c r="V43" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>10/14/2019</v>
+      </c>
+      <c r="W43" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>10/11/2020</v>
+      </c>
+      <c r="X43" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>10/10/2021</v>
+      </c>
+      <c r="Y43" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>10/09/2022</v>
+      </c>
+      <c r="Z43" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>10/15/2023</v>
+      </c>
+      <c r="AA43" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>10/13/2024</v>
+      </c>
+      <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:28">
       <c r="B44">
         <v>43</v>
       </c>
@@ -8169,45 +7331,64 @@
       <c r="M44">
         <v>43</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA44" s="1"/>
+      <c r="N44">
+        <v>43</v>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2012</v>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>10/20/2013</v>
+      </c>
+      <c r="Q44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>10/19/2014</v>
+      </c>
+      <c r="R44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/18/2015</v>
+      </c>
+      <c r="S44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>10/16/2016</v>
+      </c>
+      <c r="T44" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>10/08/2017</v>
+      </c>
+      <c r="U44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>10/15/2018</v>
+      </c>
+      <c r="V44" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>10/21/2019</v>
+      </c>
+      <c r="W44" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>10/18/2020</v>
+      </c>
+      <c r="X44" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>10/17/2021</v>
+      </c>
+      <c r="Y44" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>10/16/2022</v>
+      </c>
+      <c r="Z44" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>10/15/2023</v>
+      </c>
+      <c r="AA44" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>10/20/2024</v>
+      </c>
+      <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -8242,126 +7423,164 @@
         <v>45</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M45">
         <v>44</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>569</v>
+      <c r="N45">
+        <v>44</v>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>10/28/2012</v>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>10/27/2013</v>
+      </c>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>10/26/2014</v>
+      </c>
+      <c r="R45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/25/2015</v>
+      </c>
+      <c r="S45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>10/23/2016</v>
+      </c>
+      <c r="T45" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>10/22/2017</v>
+      </c>
+      <c r="U45" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>10/29/2018</v>
+      </c>
+      <c r="V45" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>10/28/2019</v>
+      </c>
+      <c r="W45" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>10/25/2020</v>
+      </c>
+      <c r="X45" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>10/24/2021</v>
+      </c>
+      <c r="Y45" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>10/23/2022</v>
+      </c>
+      <c r="Z45" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>10/29/2023</v>
+      </c>
+      <c r="AA45" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>10/27/2024</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>45</v>
       </c>
       <c r="H46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M46">
         <v>45</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>570</v>
+      <c r="N46">
+        <v>45</v>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/04/2012</v>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11/03/2013</v>
+      </c>
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>11/02/2014</v>
+      </c>
+      <c r="R46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11/01/2015</v>
+      </c>
+      <c r="S46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>11/06/2016</v>
+      </c>
+      <c r="T46" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>10/29/2017</v>
+      </c>
+      <c r="U46" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>11/05/2018</v>
+      </c>
+      <c r="V46" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>11/04/2019</v>
+      </c>
+      <c r="W46" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>11/01/2020</v>
+      </c>
+      <c r="X46" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>11/07/2021</v>
+      </c>
+      <c r="Y46" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>10/30/2022</v>
+      </c>
+      <c r="Z46" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>11/05/2023</v>
+      </c>
+      <c r="AA46" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>11/03/2024</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:28">
       <c r="B47">
         <v>46</v>
       </c>
@@ -8378,7 +7597,7 @@
         <v>46</v>
       </c>
       <c r="G47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>46</v>
@@ -8396,199 +7615,256 @@
         <v>46</v>
       </c>
       <c r="M47">
+        <v>45</v>
+      </c>
+      <c r="N47">
         <v>46</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>571</v>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/11/2012</v>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11/10/2013</v>
+      </c>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>11/09/2014</v>
+      </c>
+      <c r="R47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11/08/2015</v>
+      </c>
+      <c r="S47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>11/06/2016</v>
+      </c>
+      <c r="T47" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>11/05/2017</v>
+      </c>
+      <c r="U47" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>11/12/2018</v>
+      </c>
+      <c r="V47" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>11/11/2019</v>
+      </c>
+      <c r="W47" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>11/08/2020</v>
+      </c>
+      <c r="X47" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>11/07/2021</v>
+      </c>
+      <c r="Y47" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>11/06/2022</v>
+      </c>
+      <c r="Z47" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>11/12/2023</v>
+      </c>
+      <c r="AA47" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>11/10/2024</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>581</v>
+        <v>37</v>
       </c>
       <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>46</v>
+      </c>
+      <c r="H48">
+        <v>46</v>
+      </c>
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+      <c r="L48">
+        <v>47</v>
+      </c>
+      <c r="M48">
+        <v>46</v>
+      </c>
+      <c r="N48">
+        <v>47</v>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/18/2012</v>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11/17/2013</v>
+      </c>
+      <c r="Q48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>11/16/2014</v>
+      </c>
+      <c r="R48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11/15/2015</v>
+      </c>
+      <c r="S48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>11/13/2016</v>
+      </c>
+      <c r="T48" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>11/05/2017</v>
+      </c>
+      <c r="U48" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>11/19/2018</v>
+      </c>
+      <c r="V48" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>11/18/2019</v>
+      </c>
+      <c r="W48" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>11/15/2020</v>
+      </c>
+      <c r="X48" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>11/14/2021</v>
+      </c>
+      <c r="Y48" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>11/13/2022</v>
+      </c>
+      <c r="Z48" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>11/12/2023</v>
+      </c>
+      <c r="AA48" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>11/17/2024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>48</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>48</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>48</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>48</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>47</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>47</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>48</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>48</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>48</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>48</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>47</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q48" s="2" t="s">
+      <c r="N49">
         <v>48</v>
       </c>
-      <c r="R48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>572</v>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/18/2012</v>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>11/24/2013</v>
+      </c>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>11/23/2014</v>
+      </c>
+      <c r="R49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11/22/2015</v>
+      </c>
+      <c r="S49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>11/20/2016</v>
+      </c>
+      <c r="T49" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>11/12/2017</v>
+      </c>
+      <c r="U49" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>11/19/2018</v>
+      </c>
+      <c r="V49" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>11/25/2019</v>
+      </c>
+      <c r="W49" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>11/22/2020</v>
+      </c>
+      <c r="X49" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>11/21/2021</v>
+      </c>
+      <c r="Y49" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>11/20/2022</v>
+      </c>
+      <c r="Z49" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>11/19/2023</v>
+      </c>
+      <c r="AA49" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>11/24/2024</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
-      <c r="B49">
+    <row r="50" spans="1:27">
+      <c r="B50">
         <v>48</v>
-      </c>
-      <c r="C49">
-        <v>49</v>
-      </c>
-      <c r="D49">
-        <v>49</v>
-      </c>
-      <c r="E49">
-        <v>49</v>
-      </c>
-      <c r="F49">
-        <v>49</v>
-      </c>
-      <c r="G49">
-        <v>48</v>
-      </c>
-      <c r="H49">
-        <v>48</v>
-      </c>
-      <c r="I49">
-        <v>49</v>
-      </c>
-      <c r="J49">
-        <v>49</v>
-      </c>
-      <c r="K49">
-        <v>49</v>
-      </c>
-      <c r="L49">
-        <v>49</v>
-      </c>
-      <c r="M49">
-        <v>48</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
-      <c r="B50">
-        <v>49</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -8603,10 +7879,10 @@
         <v>49</v>
       </c>
       <c r="G50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I50">
         <v>49</v>
@@ -8623,44 +7899,63 @@
       <c r="M50">
         <v>49</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q50" s="2" t="s">
+      <c r="N50">
         <v>49</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>574</v>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/25/2012</v>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>12/01/2013</v>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>11/30/2014</v>
+      </c>
+      <c r="R50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11/29/2015</v>
+      </c>
+      <c r="S50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>11/27/2016</v>
+      </c>
+      <c r="T50" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>11/19/2017</v>
+      </c>
+      <c r="U50" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>11/26/2018</v>
+      </c>
+      <c r="V50" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>12/02/2019</v>
+      </c>
+      <c r="W50" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>11/29/2020</v>
+      </c>
+      <c r="X50" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>11/28/2021</v>
+      </c>
+      <c r="Y50" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>11/27/2022</v>
+      </c>
+      <c r="Z50" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>11/26/2023</v>
+      </c>
+      <c r="AA50" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>12/01/2024</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:27">
       <c r="B51">
         <v>50</v>
       </c>
@@ -8697,44 +7992,63 @@
       <c r="M51">
         <v>50</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>575</v>
+      <c r="N51">
+        <v>50</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12/02/2012</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>12/08/2013</v>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>12/07/2014</v>
+      </c>
+      <c r="R51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>12/06/2015</v>
+      </c>
+      <c r="S51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>12/04/2016</v>
+      </c>
+      <c r="T51" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>11/26/2017</v>
+      </c>
+      <c r="U51" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>12/03/2018</v>
+      </c>
+      <c r="V51" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>12/09/2019</v>
+      </c>
+      <c r="W51" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>12/06/2020</v>
+      </c>
+      <c r="X51" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>12/05/2021</v>
+      </c>
+      <c r="Y51" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>12/04/2022</v>
+      </c>
+      <c r="Z51" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>12/10/2023</v>
+      </c>
+      <c r="AA51" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>12/08/2024</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:27">
       <c r="B52">
         <v>51</v>
       </c>
@@ -8751,7 +8065,7 @@
         <v>51</v>
       </c>
       <c r="G52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52">
         <v>51</v>
@@ -8771,46 +8085,65 @@
       <c r="M52">
         <v>51</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>576</v>
+      <c r="N52">
+        <v>51</v>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12/16/2012</v>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>12/15/2013</v>
+      </c>
+      <c r="Q52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>12/14/2014</v>
+      </c>
+      <c r="R52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>12/13/2015</v>
+      </c>
+      <c r="S52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>12/11/2016</v>
+      </c>
+      <c r="T52" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>12/10/2017</v>
+      </c>
+      <c r="U52" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>12/17/2018</v>
+      </c>
+      <c r="V52" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>12/16/2019</v>
+      </c>
+      <c r="W52" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>12/13/2020</v>
+      </c>
+      <c r="X52" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>12/12/2021</v>
+      </c>
+      <c r="Y52" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>12/11/2022</v>
+      </c>
+      <c r="Z52" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>12/17/2023</v>
+      </c>
+      <c r="AA52" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>12/15/2024</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -8828,7 +8161,7 @@
         <v>52</v>
       </c>
       <c r="G53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H53">
         <v>52</v>
@@ -8848,49 +8181,68 @@
       <c r="M53">
         <v>52</v>
       </c>
-      <c r="N53" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>577</v>
+      <c r="N53">
+        <v>52</v>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12/23/2012</v>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>12/22/2013</v>
+      </c>
+      <c r="Q53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>12/21/2014</v>
+      </c>
+      <c r="R53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>12/20/2015</v>
+      </c>
+      <c r="S53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>12/18/2016</v>
+      </c>
+      <c r="T53" s="2" t="str">
+        <f>TEXT(T$2+(G52*7),"mm/dd/yyyy")</f>
+        <v>12/24/2017</v>
+      </c>
+      <c r="U53" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>12/24/2018</v>
+      </c>
+      <c r="V53" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>12/23/2019</v>
+      </c>
+      <c r="W53" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>12/20/2020</v>
+      </c>
+      <c r="X53" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>12/19/2021</v>
+      </c>
+      <c r="Y53" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>12/18/2022</v>
+      </c>
+      <c r="Z53" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>12/24/2023</v>
+      </c>
+      <c r="AA53" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>12/22/2024</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -8905,10 +8257,10 @@
         <v>53</v>
       </c>
       <c r="G54">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>53</v>
@@ -8923,47 +8275,72 @@
         <v>53</v>
       </c>
       <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
         <v>53</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>578</v>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12/30/2012</v>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>12/29/2013</v>
+      </c>
+      <c r="Q54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>12/28/2014</v>
+      </c>
+      <c r="R54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>12/27/2015</v>
+      </c>
+      <c r="S54" s="2" t="str">
+        <f>TEXT(S$2+(F53*7),"mm/dd/yyyy")</f>
+        <v>12/25/2016</v>
+      </c>
+      <c r="T54" s="2" t="str">
+        <f>TEXT(T$2+(G53*7),"mm/dd/yyyy")</f>
+        <v>12/31/2017</v>
+      </c>
+      <c r="U54" s="2" t="str">
+        <f>TEXT(U$2+(H53*7),"mm/dd/yyyy")</f>
+        <v>12/31/2018</v>
+      </c>
+      <c r="V54" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>12/30/2019</v>
+      </c>
+      <c r="W54" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>12/27/2020</v>
+      </c>
+      <c r="X54" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>12/26/2021</v>
+      </c>
+      <c r="Y54" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>12/25/2022</v>
+      </c>
+      <c r="Z54" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>12/31/2023</v>
+      </c>
+      <c r="AA54" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>12/29/2024</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b6b2f512-6fd0-42fe-9659-6c5ee67da460}" enabled="0" method="" siteId="{b6b2f512-6fd0-42fe-9659-6c5ee67da460}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/Define Matching Weeks.xlsx
+++ b/Define Matching Weeks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amfam-my.sharepoint.com/personal/sierra_steiner_connectbyamfam_com/Documents/Documents/FTL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{31271D5B-B40D-45F2-898B-D61F0B1B82E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9475F6-4750-4DD6-A406-96FFDE7379B5}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{31271D5B-B40D-45F2-898B-D61F0B1B82E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A41AAD-3763-4CD7-AF83-4C0971654BBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98C48DBD-1433-48C6-8761-997BB72F2AB5}"/>
   </bookViews>
@@ -3222,7 +3222,7 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3559,7 +3559,7 @@
         <v>01/17/2016</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f t="shared" ref="T4:T53" si="6">TEXT(T$2+(G3*7),"mm/dd/yyyy")</f>
+        <f t="shared" ref="T4:T52" si="6">TEXT(T$2+(G3*7),"mm/dd/yyyy")</f>
         <v>01/08/2017</v>
       </c>
       <c r="U4" s="2" t="str">
@@ -7615,7 +7615,7 @@
         <v>46</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -7711,7 +7711,7 @@
         <v>47</v>
       </c>
       <c r="M48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>47</v>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="Z48" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>11/12/2023</v>
+        <v>11/19/2023</v>
       </c>
       <c r="AA48" s="2" t="str">
         <f t="shared" si="13"/>
@@ -7804,7 +7804,7 @@
         <v>48</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N49">
         <v>48</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z49" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>11/19/2023</v>
+        <v>11/26/2023</v>
       </c>
       <c r="AA49" s="2" t="str">
         <f t="shared" si="13"/>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="Z50" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>11/26/2023</v>
+        <v>12/03/2023</v>
       </c>
       <c r="AA50" s="2" t="str">
         <f t="shared" si="13"/>
@@ -8040,7 +8040,7 @@
         <v>12/04/2022</v>
       </c>
       <c r="Z51" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f>TEXT(Z$2+(M50*7),"mm/dd/yyyy")</f>
         <v>12/10/2023</v>
       </c>
       <c r="AA51" s="2" t="str">
